--- a/Output_testing/R1_201907/Country/HKD/MN/THAILAND_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/THAILAND_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>11903.672061</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>24.82563756050459</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>15080.039989</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>27.85615334209309</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>18562.089609</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>30.63965523925086</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>10155.657602</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>30.99743926260976</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>3.319565794078549</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>4323.083663</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>9.015983270658131</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>5188.009158</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>9.583394921422528</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>5785.253874</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>9.549473572466493</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>3329.464857</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>10.1623044736686</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>0.9861568365048923</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>5658.056677</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>11.80012887117413</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>5505.488837</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>10.16984977351002</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>5773.62126</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>9.530272109161498</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>3085.727385</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>9.418360774458604</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-5.903029467757426</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>2775.837348</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>5.78913225895532</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>3227.179009</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>5.961310009964325</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>3213.491096</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>5.304373665349779</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>1736.625432</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>5.300586477011813</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-6.864525506349684</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>4144.355343</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>8.643237409433091</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>3710.032975</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>6.85324757303081</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>4042.46741</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>6.672729760891402</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>1527.409879</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>4.66201173856911</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-39.06929934865023</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>SILVER, PLATINUM AND OTHER METALS OF THE PLATINUM GROUP</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>1480.319147</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>3.087271425907381</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>1721.099272</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>3.179249211061013</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>1354.918419</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>2.236506455358468</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>836.309591</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>2.55261222539201</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>16.47168868519447</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>1078.626889</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>2.249524354510745</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>1507.857186</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>2.78534413846593</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>1857.734562</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>3.0664837690538</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>786.602241</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.400893782046023</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-31.22516774748887</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>1084.812175</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>2.262424043586283</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>1174.669752</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>2.169873605235733</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>1356.802318</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>2.239616127657301</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>768.60607</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.34596526442623</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-0.9372759917378293</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>1350.781615</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>2.817115141070674</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>1082.321556</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.999286159146855</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>1299.307857</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>2.144712455693967</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>762.634933</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>2.327739959503605</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>0.3439982319634272</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>989.346311</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>2.063325737876966</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>1041.22768</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.923376724416445</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>1497.298521</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>2.471527260133281</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>748.386349</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>2.28424995280712</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-10.4462611931591</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>13160.217961</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>27.44621992632268</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>14897.474416</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>27.51891454165325</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>15838.929146</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>26.14464958498315</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>9025.467833999999</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>27.54783608950713</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>1.89658195721083</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,433 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>SILVER, PLATINUM AND OTHER METALS OF THE PLATINUM GROUP</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>39.315562</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>3.776796251738686</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>214.29755</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>20.22324383622407</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>236.354707</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>19.58913592360608</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>114.590533</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>19.61928988715471</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>400.0029801941446</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>178.165597</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>17.11523693692552</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>120.434229</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>11.36536922281495</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>152.484636</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>12.63796392625088</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>104.630104</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>17.91394356547016</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>10.35460571023079</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>120.623104</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>11.58749522797832</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>139.49606</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>13.1642327948805</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>201.19928</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>16.67544553555973</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>94.782286</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>16.22787761360012</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-15.47983919976907</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>ESSENTIAL OILS, PERFUME AND FLAVOUR MATERIALS</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>73.961262</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>7.104988530889191</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>79.953694</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>7.545224149174105</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>81.37459</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>6.744345921732442</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>49.485063</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>8.47244332200736</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-2.479792739129749</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>18.090978</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>1.737885316269599</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>82.65090600000001</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>7.799759844771136</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>129.609197</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>10.74204194707422</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>41.928343</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>7.178641151839779</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-39.10464282198001</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>82.428257</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>7.918358945878813</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>62.294489</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>5.878726288284574</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>63.378959</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>5.252863623095338</v>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v>26.018615</v>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>4.454702642383834</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-9.742457101362433</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>OTHER INORGANIC CHEMICALS; ORGANIC AND INORGANIC COMPOUNDS OF PRECIOUS METALS</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>103.512604</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>9.943798203747182</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>62.350069</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>5.883971368745911</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>53.45981</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>4.430762127957772</v>
+      </c>
+      <c r="I37" s="8" t="n">
+        <v>18.627213</v>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>3.189204920067671</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-55.04075321939958</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>FERROUS WASTE AND SCRAP; REMELTING INGOTS OF IRON OR STEEL</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>66.657625</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>6.403374527618426</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>25.292284</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>2.386830957736235</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>65.780812</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>5.451929787178632</v>
+      </c>
+      <c r="I38" s="8" t="n">
+        <v>17.720522</v>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>3.033968417528023</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-3.096940397897829</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>18.89189</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>1.814823843552321</v>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>30.08768</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>2.839372121175824</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>37.809712</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>3.133678178029262</v>
+      </c>
+      <c r="I39" s="8" t="n">
+        <v>17.465341</v>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>2.990278333525237</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-13.189353907295</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v>50.505861</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>4.851777179622539</v>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>27.787232</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>2.622279014714485</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>32.45446</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>2.689833582485991</v>
+      </c>
+      <c r="I40" s="8" t="n">
+        <v>14.471027</v>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>2.477615438596859</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>-8.461642931744617</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>288.823775</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>27.74546503577941</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>215.015433</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>20.29099040147822</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>152.653983</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>12.65199944702964</v>
+      </c>
+      <c r="I41" s="8" t="n">
+        <v>84.35169999999999</v>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>14.44203470782624</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-12.91540874468806</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1726,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>11902.981989</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>25.3750923565196</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>15079.943245</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>28.41212046603453</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>18562.069272</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>31.26224610826583</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>10155.657602</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>31.56006700044764</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>3.319749742436939</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>4272.577802</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>9.108394554100634</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>5160.221926</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>9.722373924822069</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>5752.799414</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>9.688867574869132</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>3314.99383</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>10.30178758293968</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>1.03167678451217</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>5657.423296</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>12.06064486769724</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>5503.07689</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>10.36834694881046</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>5769.530933</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>9.717046807317754</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>3083.707207</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>9.583033406277618</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-5.847266825195541</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>2763.979206</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>5.892324099000175</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>3216.034205</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>6.059329917282296</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>3206.661281</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>5.400660491214063</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>1735.201361</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>5.392370770913268</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-6.757830050083702</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>4141.167658</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>8.828250927598878</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>3708.155664</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>6.986535938542669</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>4042.459733</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>6.808312651134933</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>1527.271443</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>4.746200685168624</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-39.07482177101463</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>1075.174316</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>2.292085092044223</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>1507.67788</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>2.840615833533632</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>1857.59514</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>3.12856263950045</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>786.602241</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>2.444471879770082</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-31.21678303543894</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>1084.812175</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>2.31263133520162</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>1174.669752</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>2.213195232859837</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>1356.802318</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>2.285127124784796</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>768.60607</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.388546366645293</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-0.9372759917378293</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>1350.3474</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>2.878706362830078</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>1082.085148</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>2.038756584158669</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>1299.127649</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>2.187991419165456</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>762.467229</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>2.369469095545985</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>0.3330275924092296</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>989.346311</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>2.109114677095809</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>1041.22768</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.961777030330571</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>1497.298521</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>2.521750898303858</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>748.386349</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>2.325710873908251</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-10.4462611931591</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>SILVER, PLATINUM AND OTHER METALS OF THE PLATINUM GROUP</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>1441.003585</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>3.071969619818169</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>1506.801722</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>2.838965064280802</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>1118.563712</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.883885548529235</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>721.719058</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>2.242838693330334</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>3.826716051834089</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>12229.318937</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>26.07078610809357</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>14095.846092</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>26.55798305934447</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>14912.445953</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>25.11554873691449</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>8574.209036</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>26.64550364505323</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>2.889789989636826</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2184,433 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>20471.243515</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>24.78790308479479</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>23015.284109</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>25.67482714023651</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>24159.154442</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>26.22918398802602</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>12551.657997</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>26.05288993333013</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-10.98338689823254</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>14549.435776</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>17.61739601649862</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>16026.373506</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>17.87830936618816</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>18973.923541</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>20.59966679406797</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>9123.219698999999</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>18.93664077785151</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-15.31547255182837</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>9554.497259</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>11.56920203242619</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>12264.095477</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>13.68127935818963</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>10401.0741</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>11.29226964035284</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>5340.229337</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>11.08446447225179</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-1.074175813069178</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>4033.143424</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>4.883590400746079</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>3320.808143</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>3.704545841520761</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>3771.894324</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>4.095081657145815</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>3225.444469</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>6.694904351043516</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>37.81388020114544</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>5613.994077</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>6.797786416703079</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>5207.952304</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>5.809759919822524</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>5130.301888</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>5.569881696709312</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>2383.646024</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>4.947622658148817</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-16.24947997661864</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>2498.821603</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>3.025734498051842</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>2766.698653</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>3.086405943480078</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>2546.884517</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>2.765109298548678</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>1148.091755</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>2.383040402592864</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-20.42054796437807</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>3712.185079</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>4.494953318475694</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>1555.718447</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>1.73549029490289</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>1937.717288</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>2.103746775813207</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>1147.830964</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>2.382499090901594</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>13.92787651577234</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>042</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>RICE</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>1272.659376</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>1.54101812374652</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>1278.713551</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>1.426475955209465</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>1468.704436</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>1.594547481715792</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>839.217678</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>1.741924915438634</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-4.940313878478008</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>150.35879</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.1820641287245716</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>2227.918583</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>2.485366864477565</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>2185.222015</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>2.37245845767171</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>799.7890169999999</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>1.660084686402988</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-50.77399250466442</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>1083.911798</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>1.312470372481409</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>1487.993297</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>1.659939130248066</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>1158.438115</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>1.257696602338606</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>659.647855</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.369200225594094</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>1.597661340987688</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>19645.369575</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>23.78788160735121</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>20489.881371</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>22.85760018572436</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>20374.60014</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>22.12035760761005</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>10958.828646</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>22.74672848644406</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-5.501323927880353</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
